--- a/00Resultados3Bus_TS.xlsx
+++ b/00Resultados3Bus_TS.xlsx
@@ -10,7 +10,11 @@
     <sheet name="Escenarios - Gen OUT" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="DatosGenAGC" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="D0_E 0--G5" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="Gen D1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="D0_E 1--G1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="D0_E 2--G2" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="D0_E 3--G3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="D0_E 4--G4" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="Gen D1" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -428,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -477,6 +481,94 @@
       <c r="D2" t="inlineStr">
         <is>
           <t>1.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>G1</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>0.640000000005626</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>G2</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>G3</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>0.41903925464820785</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>G4</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>0.10000000001723991</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.0</t>
         </is>
       </c>
     </row>
@@ -626,7 +718,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>10.000000001767038</t>
+          <t>10.000000001723992</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -803,7 +895,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>1.1137908785484662e-10</t>
+          <t>1.1137761593920696e-10</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -818,7 +910,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -835,22 +927,22 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>0.10000000001767038</t>
+          <t>0.10000000001723991</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0.3737442130525732</t>
+          <t>0.3737942136674169</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.8999999999823304</t>
+          <t>0.8999999999827606</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>1.0000000000000007</t>
+          <t>1.0000000000000004</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -877,7 +969,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0.6927835182352986</t>
+          <t>0.6928317103316465</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -914,17 +1006,17 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>1.2337480858934133</t>
+          <t>1.233796298617361</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.04599086419996167</t>
+          <t>0.04616916677889854</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>1.0059908641999615</t>
+          <t>1.0061691667788986</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -951,7 +1043,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>0.913746400218484</t>
+          <t>0.9137945891428152</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -986,7 +1078,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1002,12 +1094,32 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Potencia</t>
+          <t>Potencia Previa</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>E1</t>
+          <t>Potencia PFC</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Aumento</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Potencia SFC</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Gen en AGC</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Rampa</t>
         </is>
       </c>
     </row>
@@ -1024,7 +1136,27 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>1.1137908785484662e-10</t>
+          <t>1.257754568372968</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.6369745843695991</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>2.2</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1499.85</t>
         </is>
       </c>
     </row>
@@ -1036,12 +1168,32 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>0.10000000001767038</t>
+          <t>0.10000000001723991</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0.3737442130525732</t>
+          <t>0.2577533632679562</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>0.10000000001723991</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1499.85</t>
         </is>
       </c>
     </row>
@@ -1058,7 +1210,27 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0.6927835182352986</t>
+          <t>0.5767894052868175</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>0.41903925464820785</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1499.85</t>
         </is>
       </c>
     </row>
@@ -1075,7 +1247,27 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>1.2337480858934133</t>
+          <t>1.117754211773953</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1499.85</t>
         </is>
       </c>
     </row>
@@ -1092,7 +1284,991 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>0.913746400218484</t>
+          <t>1.103651637171296e-10</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>0.640000000005626</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1499.85</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Gen</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Potencia Previa</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Potencia PFC</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Aumento</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Potencia SFC</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Gen en AGC</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Rampa</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>G5</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>1.1</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>1.3387696469823223</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.9389220107334809</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>2.038922010733481</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1499.85</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>G4</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>0.10000000001723991</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>0.33876769311239385</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>0.10000000001723991</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1499.85</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>G3</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>0.41903925464820785</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>0.657804928837769</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>0.41903925464820785</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1499.85</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>G2</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>1.1110359867969578e-10</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1499.85</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>G1</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>0.640000000005626</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>0.8787678926246819</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.011637977962521901</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>0.6516379779681478</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1499.85</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Gen</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Potencia Previa</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Potencia PFC</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Aumento</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Potencia SFC</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Gen en AGC</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Rampa</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>G5</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>1.1</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>1.2044443605373865</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.4168935740393821</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>1.5168935740393823</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1499.85</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>G4</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>0.10000000001723991</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>0.20444391278618837</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>0.10000000001723991</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1499.85</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>G3</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>0.41903925464820785</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>1.0999377577148322e-10</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>0.41903925464820785</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1499.85</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>G2</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>1.0644441464618084</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1499.85</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>G1</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>0.640000000005626</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>0.7444436743830019</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>0.640000000005626</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1499.85</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Gen</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Potencia Previa</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Potencia PFC</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Aumento</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Potencia SFC</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Gen en AGC</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Rampa</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>G5</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>1.1</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>1.107881813456261</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.029784431203506687</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>1.1297844312035068</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1499.85</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>G4</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>0.10000000001723991</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>1.1157653034324027e-10</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>0.10000000001723991</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1499.85</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>G3</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>0.41903925464820785</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>0.4269214864989009</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>0.41903925464820785</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1499.85</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>G2</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>0.967881819824187</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1499.85</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>G1</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>0.640000000005626</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>0.6478821532594723</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>0.640000000005626</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1499.85</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Gen</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Potencia</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>E1</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>E2</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>E3</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>E4</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>E5</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>G5</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>1.1</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>1.1137761593920696e-10</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.257754568372968</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>1.3387696469823223</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.2044443605373865</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.107881813456261</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>G4</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>0.10000000001723991</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>0.3737942136674169</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.2577533632679562</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>0.33876769311239385</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0.20444391278618837</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.1157653034324027e-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>G3</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>0.41903925464820785</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>0.6928317103316465</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.5767894052868175</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>0.657804928837769</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.0999377577148322e-10</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4269214864989009</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>G2</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>1.233796298617361</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.117754211773953</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>1.1110359867969578e-10</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.0644441464618084</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.967881819824187</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>G1</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>0.640000000005626</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>0.9137945891428152</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.103651637171296e-10</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>0.8787678926246819</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0.7444436743830019</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.6478821532594723</t>
         </is>
       </c>
     </row>
